--- a/tests/data/a-b_test_golden_file.xlsx
+++ b/tests/data/a-b_test_golden_file.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,17 +648,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>shape:</t>
+          <t>dimensions:</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>(2,)</t>
+          <t>('conditions',)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>(2,)</t>
+          <t>('conditions',)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -666,17 +666,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>chunksize:</t>
+          <t>shape:</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>contiguous</t>
+          <t>(2,)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>contiguous</t>
+          <t>(2,)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -684,17 +684,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-----VARIABLE-----:</t>
+          <t>chunksize:</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>contiguous</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>contiguous</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -702,17 +702,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dtype:</t>
+          <t>-----VARIABLE-----:</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>float64</t>
+          <t>time</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>float64</t>
+          <t>time</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -720,17 +720,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>shape:</t>
+          <t>dtype:</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>(5,)</t>
+          <t>float64</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>(5,)</t>
+          <t>float64</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -738,17 +738,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>chunksize:</t>
+          <t>dimensions:</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[512]</t>
+          <t>('time',)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[512]</t>
+          <t>('time',)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -756,17 +756,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>calendar:</t>
+          <t>shape:</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>gregorian</t>
+          <t>(5,)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>gregorian</t>
+          <t>(5,)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -774,17 +774,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>coordinates:</t>
+          <t>chunksize:</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>[512]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>[512]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -792,17 +792,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>long_name:</t>
+          <t>calendar:</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Time of observation</t>
+          <t>gregorian</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Time of observation</t>
+          <t>gregorian</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -810,17 +810,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>units:</t>
+          <t>coordinates:</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>hours since 0001-01-01 00:00:00.0</t>
+          <t>time</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>hours since 0001-01-01 00:00:00.0</t>
+          <t>time</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -828,17 +828,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t> </t>
+          <t>long_name:</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Time of observation</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Time of observation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -846,17 +846,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GROUP #01</t>
+          <t>units:</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>/Data</t>
+          <t>hours since 0001-01-01 00:00:00.0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/Data</t>
+          <t>hours since 0001-01-01 00:00:00.0</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -864,17 +864,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>num variables in group:</t>
+          <t> </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t> </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t> </t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -882,17 +882,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>GROUP #01</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>/Data</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>/Data</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -900,17 +900,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-----VARIABLE-----:</t>
+          <t>num variables in group:</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -918,17 +918,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>dtype:</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>int32</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>int32</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -936,17 +936,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>shape:</t>
+          <t>-----VARIABLE-----:</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>(2,)</t>
+          <t>level</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>(2,)</t>
+          <t>level</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -954,17 +954,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>chunksize:</t>
+          <t>dtype:</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[1024]</t>
+          <t>int32</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[1024]</t>
+          <t>int32</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -972,17 +972,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>units:</t>
+          <t>dimensions:</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>hPa</t>
+          <t>('level',)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>hPa</t>
+          <t>('level',)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -990,17 +990,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t> </t>
+          <t>shape:</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t> </t>
+          <t>(2,)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t> </t>
+          <t>(2,)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -1008,17 +1008,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>GROUP #02</t>
+          <t>chunksize:</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>/Position</t>
+          <t>[1024]</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>/Position</t>
+          <t>[1024]</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1026,17 +1026,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>num variables in group:</t>
+          <t>units:</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>hPa</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>hPa</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -1044,17 +1044,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t> </t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t> </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t> </t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -1062,17 +1062,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-----VARIABLE-----:</t>
+          <t>GROUP #02</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>lat</t>
+          <t>/Position</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>lat</t>
+          <t>/Position</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -1080,52 +1080,53 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>dtype:</t>
+          <t>num variables in group:</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>float32</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>float32</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>shape:</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>(3,)</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>(2,)</t>
-        </is>
-      </c>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>chunksize:</t>
+          <t>-----VARIABLE-----:</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>contiguous</t>
+          <t>lat</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>contiguous</t>
+          <t>lat</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -1133,17 +1134,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>units:</t>
+          <t>dtype:</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>degrees north</t>
+          <t>float32</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>degrees north</t>
+          <t>float32</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -1151,70 +1152,70 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-----VARIABLE-----:</t>
+          <t>dimensions:</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>lon</t>
+          <t>('lat',)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>lon</t>
+          <t>('lat',)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>dtype:</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>float32</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>float32</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>shape:</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>(3,)</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>(2,)</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>shape:</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>(4,)</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>(2,)</t>
-        </is>
-      </c>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>chunksize:</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>contiguous</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>contiguous</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>chunksize:</t>
+          <t>units:</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>contiguous</t>
+          <t>degrees north</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>contiguous</t>
+          <t>degrees north</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -1222,17 +1223,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>units:</t>
+          <t>-----VARIABLE-----:</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>degrees east</t>
+          <t>lon</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>degrees east</t>
+          <t>lon</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -1240,17 +1241,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t> </t>
+          <t>dtype:</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t> </t>
+          <t>float32</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t> </t>
+          <t>float32</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -1258,53 +1259,52 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GROUP #03</t>
+          <t>dimensions:</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>/Statistics</t>
+          <t>('lon',)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/Statistics</t>
+          <t>('lon',)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>num variables in group:</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>shape:</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>(4,)</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>(2,)</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>chunksize:</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>contiguous</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>contiguous</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -1312,108 +1312,132 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>units:</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>degrees east</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>degrees east</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>GROUP #03</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>/Statistics</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>/Statistics</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>num variables in group:</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
           <t>-----VARIABLE-----:</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>mean_value</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="inlineStr">
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
         <is>
           <t>dtype:</t>
         </is>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>float32</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>shape:</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>(5,)</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>chunksize:</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>[1024]</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>coordinates:</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>long_name:</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>average value for each time</t>
-        </is>
-      </c>
-      <c r="C58" s="2" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>-----VARIABLE-----:</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>std_value</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="C59" s="2" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>dtype:</t>
-        </is>
-      </c>
-      <c r="B60" s="2" t="inlineStr"/>
-      <c r="C60" s="2" t="inlineStr">
-        <is>
-          <t>float32</t>
-        </is>
-      </c>
+          <t>dimensions:</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>('time',)</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
@@ -1421,12 +1445,12 @@
           <t>shape:</t>
         </is>
       </c>
-      <c r="B61" s="2" t="inlineStr"/>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>(5,)</t>
         </is>
       </c>
+      <c r="C61" s="2" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
@@ -1434,12 +1458,12 @@
           <t>chunksize:</t>
         </is>
       </c>
-      <c r="B62" s="2" t="inlineStr"/>
-      <c r="C62" s="2" t="inlineStr">
+      <c r="B62" s="2" t="inlineStr">
         <is>
           <t>[1024]</t>
         </is>
       </c>
+      <c r="C62" s="2" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
@@ -1447,12 +1471,12 @@
           <t>coordinates:</t>
         </is>
       </c>
-      <c r="B63" s="2" t="inlineStr"/>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t>time</t>
         </is>
       </c>
+      <c r="C63" s="2" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
@@ -1460,204 +1484,173 @@
           <t>long_name:</t>
         </is>
       </c>
-      <c r="B64" s="2" t="inlineStr"/>
-      <c r="C64" s="2" t="inlineStr">
-        <is>
-          <t>standard deviation value for each time</t>
-        </is>
-      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>average value for each time</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+          <t>-----VARIABLE-----:</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t> </t>
+          <t>std_value</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>GROUP #04</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>/Data/Products</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>/Data/Products</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>dtype:</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr"/>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>float32</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>num variables in group:</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>dimensions:</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr"/>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>('time',)</t>
+        </is>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>shape:</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr"/>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>(5,)</t>
+        </is>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>-----VARIABLE-----:</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>temp</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>temp</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>chunksize:</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr"/>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>[1024]</t>
+        </is>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>dtype:</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>float32</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>float32</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>coordinates:</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr"/>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>shape:</t>
-        </is>
-      </c>
-      <c r="B71" s="2" t="inlineStr">
-        <is>
-          <t>(5, 2, 3, 4)</t>
-        </is>
-      </c>
+          <t>long_name:</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr"/>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>(5, 2, 2, 2)</t>
+          <t>standard deviation value for each time</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="inlineStr">
-        <is>
-          <t>chunksize:</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="inlineStr">
-        <is>
-          <t>[1, 1, 3, 4]</t>
-        </is>
-      </c>
-      <c r="C72" s="2" t="inlineStr">
-        <is>
-          <t>[1, 1, 2, 2]</t>
-        </is>
-      </c>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>long_name:</t>
+          <t>GROUP #04</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>temperature</t>
+          <t>/Data/Products</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>temperature</t>
+          <t>/Data/Products</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="inlineStr">
-        <is>
-          <t>units:</t>
-        </is>
-      </c>
-      <c r="B74" s="2" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="C74" s="2" t="inlineStr">
-        <is>
-          <t>Kelvin</t>
-        </is>
-      </c>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>num variables in group:</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t> </t>
+          <t>-</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t> </t>
+          <t>-</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t> </t>
+          <t>-</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -1665,17 +1658,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>GROUP #05</t>
+          <t>-----VARIABLE-----:</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>/Data/Quality</t>
+          <t>temp</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>/Data/Quality</t>
+          <t>temp</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -1683,17 +1676,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>num variables in group:</t>
+          <t>dtype:</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>float32</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>float32</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -1701,105 +1694,104 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>dimensions:</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>('time', 'level', 'lat', 'lon')</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>('time', 'level', 'lat', 'lon')</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>-----VARIABLE-----:</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>quality_flag</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>quality_flag</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>shape:</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>(5, 2, 3, 4)</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>(5, 2, 2, 2)</t>
+        </is>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>dtype:</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>int32</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>int32</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>chunksize:</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>[1, 1, 3, 4]</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>[1, 1, 2, 2]</t>
+        </is>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="inlineStr">
-        <is>
-          <t>shape:</t>
-        </is>
-      </c>
-      <c r="B81" s="2" t="inlineStr">
-        <is>
-          <t>(5, 2, 3, 4)</t>
-        </is>
-      </c>
-      <c r="C81" s="2" t="inlineStr">
-        <is>
-          <t>(5, 2, 2, 2)</t>
-        </is>
-      </c>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>long_name:</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>temperature</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>temperature</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>chunksize:</t>
+          <t>units:</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>[1, 1, 3, 4]</t>
+          <t>K</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>[1, 1, 2, 2]</t>
+          <t>Kelvin</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>units:</t>
+          <t> </t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>unitless</t>
+          <t> </t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>unitless</t>
+          <t> </t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -1807,17 +1799,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t> </t>
+          <t>GROUP #05</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t> </t>
+          <t>/Data/Quality</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t> </t>
+          <t>/Data/Quality</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
@@ -1825,48 +1817,53 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>GROUP #06</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr"/>
+          <t>num variables in group:</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>/Data/Supplemental</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="inlineStr">
-        <is>
-          <t>num variables in group:</t>
-        </is>
-      </c>
-      <c r="B86" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C86" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>-----VARIABLE-----:</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>quality_flag</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>quality_flag</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
@@ -1874,29 +1871,38 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-----VARIABLE-----:</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr"/>
+          <t>dtype:</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>int32</t>
+        </is>
+      </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>supplemental_flag</t>
+          <t>int32</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="inlineStr">
-        <is>
-          <t>dtype:</t>
-        </is>
-      </c>
-      <c r="B89" s="2" t="inlineStr"/>
-      <c r="C89" s="2" t="inlineStr">
-        <is>
-          <t>int32</t>
-        </is>
-      </c>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>dimensions:</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>('time', 'level', 'lat', 'lon')</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>('time', 'level', 'lat', 'lon')</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
@@ -1904,10 +1910,14 @@
           <t>shape:</t>
         </is>
       </c>
-      <c r="B90" s="2" t="inlineStr"/>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>(5, 2, 3, 4)</t>
+        </is>
+      </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>(5, 2)</t>
+          <t>(5, 2, 2, 2)</t>
         </is>
       </c>
     </row>
@@ -1917,25 +1927,34 @@
           <t>chunksize:</t>
         </is>
       </c>
-      <c r="B91" s="2" t="inlineStr"/>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>[1, 1, 3, 4]</t>
+        </is>
+      </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>[1, 2]</t>
+          <t>[1, 1, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="inlineStr">
+      <c r="A92" t="inlineStr">
         <is>
           <t>units:</t>
         </is>
       </c>
-      <c r="B92" s="2" t="inlineStr"/>
-      <c r="C92" s="2" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>unitless</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>unitless</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1958,13 +1977,13 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>GROUP #07</t>
+          <t>GROUP #06</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
-          <t>/Data/Supplemental/Details</t>
+          <t>/Data/Supplemental</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
@@ -2013,7 +2032,7 @@
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
-          <t>condition_details</t>
+          <t>supplemental_flag</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
@@ -2027,86 +2046,76 @@
       <c r="B98" s="2" t="inlineStr"/>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>float64</t>
+          <t>int32</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>shape:</t>
+          <t>dimensions:</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr"/>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>(2,)</t>
+          <t>('time', 'conditions')</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>chunksize:</t>
+          <t>shape:</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr"/>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>contiguous</t>
+          <t>(5, 2)</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>chunksize:</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="inlineStr"/>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>[1, 2]</t>
+        </is>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>SUMMARY</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>units:</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr"/>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>unitless</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Total # of shared variables:</t>
+          <t> </t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>7</t>
+          <t> </t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>7</t>
+          <t> </t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
@@ -2114,53 +2123,48 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Total # of non-shared variables:</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
+          <t>GROUP #07</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>/Data/Supplemental/Details</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>num variables in group:</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Total # of shared groups:</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Total # of non-shared groups:</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
@@ -2168,50 +2172,224 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
+          <t>-----VARIABLE-----:</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>condition_details</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>dtype:</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr"/>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>float64</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>dimensions:</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="inlineStr"/>
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>('conditions',)</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>shape:</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr"/>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>(2,)</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>chunksize:</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="inlineStr"/>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>contiguous</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>SUMMARY</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Total # of shared variables:</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Total # of non-shared variables:</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Total # of shared groups:</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Total # of non-shared groups:</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
           <t>Total # of shared attributes:</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
         <is>
           <t>Total # of non-shared attributes:</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="inlineStr">
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
         <is>
           <t>Differences were found in these attributes:</t>
         </is>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1" t="inlineStr">
-        <is>
-          <t>['chunksize', 'coordinates', 'dtype', 'long_name', 'shape', 'units']</t>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>['chunksize', 'coordinates', 'dimensions', 'dtype', 'long_name', 'shape', 'units']</t>
         </is>
       </c>
     </row>
